--- a/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$49</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,134 +431,111 @@
     <t>Organization.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identificador del establecimiento de salud</t>
+  </si>
+  <si>
+    <t>Identificador universal de la organización en Chile</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.extension:ServicioDeSalud</t>
-  </si>
-  <si>
-    <t>ServicioDeSalud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interoperabilidad.minsal.cl/fhir/ig/urgencia/StructureDefinition/ServicioDeSalud}
-</t>
-  </si>
-  <si>
-    <t>Servicio de Salud al que pertenece el establecimiento</t>
-  </si>
-  <si>
-    <t>Extensión para registrar el Servicio de Salud al cual pertenece un establecimiento de salud.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identificador del establecimiento de salud</t>
-  </si>
-  <si>
-    <t>Identificador universal de la organización en Chile</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.10 / XON.3</t>
-  </si>
-  <si>
-    <t>.scopes[Role](classCode=IDENT)</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1023,6 +1000,10 @@
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1557,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1568,7 +1549,7 @@
   <cols>
     <col min="1" max="1" width="36.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1576,7 +1557,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2532,7 +2513,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2551,15 +2532,17 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2596,14 +2579,16 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2624,7 +2609,7 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -2638,41 +2623,43 @@
         <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2720,7 +2707,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2729,7 +2716,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2738,7 +2725,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -2749,45 +2736,43 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2836,7 +2821,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2845,30 +2830,30 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2876,33 +2861,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2950,50 +2933,50 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3005,15 +2988,17 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3050,37 +3035,37 @@
         <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3091,44 +3076,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3152,49 +3139,49 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3205,10 +3192,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3225,25 +3212,25 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3268,13 +3255,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3292,7 +3279,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3307,10 +3294,10 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3321,10 +3308,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3338,7 +3325,7 @@
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3347,19 +3334,19 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3372,7 +3359,7 @@
         <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>79</v>
@@ -3384,13 +3371,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3408,7 +3395,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3423,13 +3410,13 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3437,10 +3424,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3448,7 +3435,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3463,20 +3450,18 @@
         <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3488,7 +3473,7 @@
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3524,7 +3509,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3539,13 +3524,13 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3553,10 +3538,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3564,13 +3549,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3579,17 +3564,15 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -3602,7 +3585,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3638,7 +3621,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3653,13 +3636,13 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -3667,10 +3650,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3693,15 +3676,17 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -3750,7 +3735,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3765,13 +3750,13 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -3779,10 +3764,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3799,72 +3784,76 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3879,24 +3868,24 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3907,88 +3896,86 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -3997,24 +3984,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4025,10 +4012,10 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>79</v>
@@ -4037,19 +4024,19 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4074,13 +4061,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4098,39 +4085,39 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4141,7 +4128,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>90</v>
@@ -4150,22 +4137,22 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4214,28 +4201,28 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4243,10 +4230,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4269,19 +4256,19 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4330,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4339,19 +4326,19 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4359,10 +4346,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4373,10 +4360,10 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -4385,20 +4372,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>269</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4446,28 +4429,28 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -4475,21 +4458,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4501,15 +4484,17 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4546,37 +4531,37 @@
         <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4587,21 +4572,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4610,20 +4595,18 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4648,52 +4631,52 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -4701,10 +4684,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4727,16 +4710,20 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4760,13 +4747,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4784,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4793,19 +4780,19 @@
         <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -4813,10 +4800,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4833,25 +4820,25 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4876,13 +4863,11 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -4900,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -4915,13 +4900,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -4929,10 +4914,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4949,26 +4934,24 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4992,11 +4975,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5014,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5029,13 +5014,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5043,10 +5028,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5069,17 +5054,15 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5128,7 +5111,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5143,13 +5126,13 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5157,10 +5140,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5171,28 +5154,32 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5240,28 +5227,28 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5269,10 +5256,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5283,31 +5270,29 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5356,28 +5341,28 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>324</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>326</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5385,10 +5370,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5399,27 +5384,29 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>328</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>329</v>
       </c>
       <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>331</v>
       </c>
@@ -5470,13 +5457,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5485,13 +5472,13 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5513,10 +5500,10 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -5525,20 +5512,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5586,25 +5569,25 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>160</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5615,21 +5598,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5641,15 +5624,17 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5698,25 +5683,25 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -5727,14 +5712,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5747,24 +5732,26 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5812,7 +5799,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -5830,7 +5817,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -5841,45 +5828,43 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5904,13 +5889,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -5928,25 +5913,25 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>132</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -5957,10 +5942,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5983,17 +5968,17 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6018,13 +6003,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6042,7 +6027,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6057,7 +6042,7 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>352</v>
@@ -6085,7 +6070,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>90</v>
@@ -6097,10 +6082,10 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>355</v>
@@ -6162,7 +6147,7 @@
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6199,10 +6184,10 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
@@ -6211,18 +6196,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
+        <v>158</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>361</v>
+        <v>159</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6270,25 +6253,25 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>359</v>
+        <v>160</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>364</v>
+        <v>161</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6299,21 +6282,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6325,15 +6308,17 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6370,37 +6355,37 @@
         <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6411,21 +6396,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6434,20 +6419,18 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6472,52 +6455,50 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6525,10 +6506,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6551,16 +6532,20 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6584,11 +6569,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6606,7 +6593,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6615,19 +6602,19 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -6635,10 +6622,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6655,25 +6642,25 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6698,13 +6685,11 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -6722,7 +6707,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6737,13 +6722,13 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -6751,10 +6736,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6771,26 +6756,24 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6814,11 +6797,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -6836,7 +6821,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -6851,13 +6836,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>161</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -6865,10 +6850,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6891,17 +6876,15 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -6950,7 +6933,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -6965,13 +6948,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -6979,10 +6962,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7002,19 +6985,21 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>216</v>
+        <v>371</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7062,7 +7047,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7077,13 +7062,13 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7091,10 +7076,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7105,7 +7090,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7117,17 +7102,17 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7176,13 +7161,13 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
@@ -7191,134 +7176,20 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="P50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN50">
+  <autoFilter ref="A1:AN49">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7328,7 +7199,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI48">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-EstablecimientoUrg.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
